--- a/ExpenseOnDemand for SME/ExcelFiles/credentials.xlsx
+++ b/ExpenseOnDemand for SME/ExcelFiles/credentials.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Neha Dadwal\Selenium Files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260C7DD1-8C48-4350-8521-5228966154BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{327B1019-E187-479B-BB6C-F521044E2359}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D1BD1215-3023-4083-BC4E-88F511955B94}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="20760" windowHeight="11820" xr2:uid="{D1BD1215-3023-4083-BC4E-88F511955B94}"/>
   </bookViews>
   <sheets>
     <sheet name="credentials" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Password</t>
   </si>
@@ -43,9 +39,6 @@
   </si>
   <si>
     <t>Aa@123456</t>
-  </si>
-  <si>
-    <t>solofeb18@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -411,7 +404,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,12 +430,8 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -452,8 +441,6 @@
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{AAAD9D5B-F00B-4D08-8FA6-E68F63A064FF}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{36BD46C1-9D78-413F-85F4-A7D959F85F04}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{F104F069-0F76-46E7-AD99-333C249919C6}"/>
-    <hyperlink ref="B3" r:id="rId4" xr:uid="{E40739B3-FD6C-48A1-B6A9-BA5E4262A648}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
